--- a/forecast.xlsx
+++ b/forecast.xlsx
@@ -557,11 +557,8 @@
       <c r="E5" t="n">
         <v>11</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>7.75</v>
+        <v>10.33</v>
       </c>
     </row>
     <row r="6">
@@ -606,11 +603,8 @@
       <c r="E7" t="n">
         <v>11</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
       <c r="H7" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -655,11 +649,8 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +864,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Новосибирск</t>
+          <t>Калининград</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -882,22 +873,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>24.91</v>
+        <v>15.36</v>
       </c>
       <c r="D18" t="n">
-        <v>22.45</v>
+        <v>12.82</v>
       </c>
       <c r="E18" t="n">
-        <v>23.27</v>
-      </c>
-      <c r="F18" t="n">
-        <v>22.2</v>
+        <v>11.64</v>
       </c>
       <c r="H18" t="n">
-        <v>23.21</v>
+        <v>13.27</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -907,25 +895,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>11</v>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>9.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Калининград</t>
+          <t>Абу-Даби</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -934,19 +919,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>15.36</v>
+        <v>34.82</v>
       </c>
       <c r="D20" t="n">
-        <v>12.82</v>
+        <v>34.45</v>
       </c>
       <c r="E20" t="n">
-        <v>11.64</v>
+        <v>33.82</v>
+      </c>
+      <c r="F20" t="n">
+        <v>34</v>
       </c>
       <c r="H20" t="n">
-        <v>13.27</v>
+        <v>34.27</v>
       </c>
       <c r="I20" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -956,25 +944,25 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D21" t="n">
+        <v>11</v>
+      </c>
+      <c r="E21" t="n">
+        <v>11</v>
+      </c>
+      <c r="F21" t="n">
         <v>2</v>
       </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Абу-Даби</t>
+          <t>Новосибирск</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -983,22 +971,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>34.82</v>
+        <v>24.91</v>
       </c>
       <c r="D22" t="n">
-        <v>34.45</v>
+        <v>22.45</v>
       </c>
       <c r="E22" t="n">
-        <v>33.82</v>
+        <v>23.27</v>
       </c>
       <c r="F22" t="n">
-        <v>34</v>
+        <v>22.2</v>
       </c>
       <c r="H22" t="n">
-        <v>34.27</v>
+        <v>23.21</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1017,10 +1005,10 @@
         <v>11</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="24">
@@ -1065,11 +1053,8 @@
       <c r="E25" t="n">
         <v>0</v>
       </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="26">
@@ -1166,11 +1151,8 @@
       <c r="E29" t="n">
         <v>11</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -1215,11 +1197,8 @@
       <c r="E31" t="n">
         <v>11</v>
       </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
       <c r="H31" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/forecast.xlsx
+++ b/forecast.xlsx
@@ -864,7 +864,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Калининград</t>
+          <t>Новосибирск</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -873,19 +873,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>15.36</v>
+        <v>24.91</v>
       </c>
       <c r="D18" t="n">
-        <v>12.82</v>
+        <v>22.45</v>
       </c>
       <c r="E18" t="n">
-        <v>11.64</v>
+        <v>23.27</v>
+      </c>
+      <c r="F18" t="n">
+        <v>22.2</v>
       </c>
       <c r="H18" t="n">
-        <v>13.27</v>
+        <v>23.21</v>
       </c>
       <c r="I18" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -895,22 +898,25 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Абу-Даби</t>
+          <t>Калининград</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -919,22 +925,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>34.82</v>
+        <v>15.36</v>
       </c>
       <c r="D20" t="n">
-        <v>34.45</v>
+        <v>12.82</v>
       </c>
       <c r="E20" t="n">
-        <v>33.82</v>
-      </c>
-      <c r="F20" t="n">
-        <v>34</v>
+        <v>11.64</v>
       </c>
       <c r="H20" t="n">
-        <v>34.27</v>
+        <v>13.27</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -944,25 +947,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>11</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>8.75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Новосибирск</t>
+          <t>Абу-Даби</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -971,22 +971,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>24.91</v>
+        <v>34.82</v>
       </c>
       <c r="D22" t="n">
-        <v>22.45</v>
+        <v>34.45</v>
       </c>
       <c r="E22" t="n">
-        <v>23.27</v>
+        <v>33.82</v>
       </c>
       <c r="F22" t="n">
-        <v>22.2</v>
+        <v>34</v>
       </c>
       <c r="H22" t="n">
-        <v>23.21</v>
+        <v>34.27</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1005,10 +1005,10 @@
         <v>11</v>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="24">
